--- a/pob_daily_data/POB_Daily_KE_Aura_N_Proxima_2025-07-01.xlsx
+++ b/pob_daily_data/POB_Daily_KE_Aura_N_Proxima_2025-07-01.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t xml:space="preserve">Division</t>
   </si>
@@ -32,6 +32,9 @@
     <t xml:space="preserve">HQ</t>
   </si>
   <si>
+    <t xml:space="preserve">Alleppey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calicut</t>
   </si>
   <si>
@@ -47,9 +50,15 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
+    <t xml:space="preserve">23/07/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">21/07/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">25/07/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">10/07/2025</t>
   </si>
   <si>
@@ -59,18 +68,27 @@
     <t xml:space="preserve">22/07/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">24/07/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">14/07/2025</t>
   </si>
   <si>
     <t xml:space="preserve">Emp Code</t>
   </si>
   <si>
+    <t xml:space="preserve">E00991</t>
+  </si>
+  <si>
     <t xml:space="preserve">E00351</t>
   </si>
   <si>
     <t xml:space="preserve">E00828</t>
   </si>
   <si>
+    <t xml:space="preserve">E00915</t>
+  </si>
+  <si>
     <t xml:space="preserve">E00823</t>
   </si>
   <si>
@@ -80,12 +98,18 @@
     <t xml:space="preserve">Emp Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Diviya Xavier(E00991)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rekesh.CP (E00351)</t>
   </si>
   <si>
     <t xml:space="preserve">Safeer TN(E00828)</t>
   </si>
   <si>
+    <t xml:space="preserve">Jomson George(E00915)</t>
+  </si>
+  <si>
     <t xml:space="preserve">JijoAntony(E00823)</t>
   </si>
   <si>
@@ -107,9 +131,15 @@
     <t xml:space="preserve">Code</t>
   </si>
   <si>
+    <t xml:space="preserve">00065250</t>
+  </si>
+  <si>
     <t xml:space="preserve">00045712</t>
   </si>
   <si>
+    <t xml:space="preserve">00046726</t>
+  </si>
+  <si>
     <t xml:space="preserve">00034613</t>
   </si>
   <si>
@@ -125,21 +155,42 @@
     <t xml:space="preserve">00055672</t>
   </si>
   <si>
+    <t xml:space="preserve">00064873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00055696</t>
+  </si>
+  <si>
     <t xml:space="preserve">00065965</t>
   </si>
   <si>
+    <t xml:space="preserve">00030822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00055516</t>
+  </si>
+  <si>
     <t xml:space="preserve">00055790</t>
   </si>
   <si>
     <t xml:space="preserve">00040055</t>
   </si>
   <si>
+    <t xml:space="preserve">00061078</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Ajmal</t>
+  </si>
+  <si>
     <t xml:space="preserve">DR ASHNA</t>
   </si>
   <si>
+    <t xml:space="preserve">Sandeep nair</t>
+  </si>
+  <si>
     <t xml:space="preserve">DR FEBI</t>
   </si>
   <si>
@@ -155,21 +206,42 @@
     <t xml:space="preserve">Abdul Shukkoor</t>
   </si>
   <si>
+    <t xml:space="preserve">Chithra K Lakshman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinayak</t>
+  </si>
+  <si>
     <t xml:space="preserve">Akhilesh Arjun</t>
   </si>
   <si>
+    <t xml:space="preserve">DR SUJITH V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saju Sahadevan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arunan Warrier</t>
   </si>
   <si>
     <t xml:space="preserve">RENJITHA</t>
   </si>
   <si>
+    <t xml:space="preserve">Ramakrishna Babu</t>
+  </si>
+  <si>
     <t xml:space="preserve">City</t>
   </si>
   <si>
+    <t xml:space="preserve">Nooranad</t>
+  </si>
+  <si>
     <t xml:space="preserve">PANOOR</t>
   </si>
   <si>
+    <t xml:space="preserve">Atholi</t>
+  </si>
+  <si>
     <t xml:space="preserve">COCHIN</t>
   </si>
   <si>
@@ -182,12 +254,24 @@
     <t xml:space="preserve">TRIPUNITHURA</t>
   </si>
   <si>
+    <t xml:space="preserve">Perumbavoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAVOOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">KOLLAM</t>
   </si>
   <si>
+    <t xml:space="preserve">KARUNAGAPALLY</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRIVANDRUM</t>
   </si>
   <si>
+    <t xml:space="preserve">VARKALA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category</t>
   </si>
   <si>
@@ -197,6 +281,9 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
+    <t xml:space="preserve">RBM 50</t>
+  </si>
+  <si>
     <t xml:space="preserve">Speciality</t>
   </si>
   <si>
@@ -215,6 +302,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">CARDIAC</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOOD</t>
   </si>
   <si>
@@ -227,16 +317,28 @@
     <t xml:space="preserve">CARTITAB</t>
   </si>
   <si>
+    <t xml:space="preserve">GASTROLOGY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product Code</t>
   </si>
   <si>
+    <t xml:space="preserve">IM0834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM1399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM0795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM1398</t>
+  </si>
+  <si>
     <t xml:space="preserve">IM1314</t>
   </si>
   <si>
-    <t xml:space="preserve">IM0795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM0834</t>
+    <t xml:space="preserve">IM1388</t>
   </si>
   <si>
     <t xml:space="preserve">IM1380</t>
@@ -251,22 +353,37 @@
     <t xml:space="preserve">IM0982</t>
   </si>
   <si>
+    <t xml:space="preserve">IM1400</t>
+  </si>
+  <si>
     <t xml:space="preserve">IM0831</t>
   </si>
   <si>
     <t xml:space="preserve">IM1627</t>
   </si>
   <si>
+    <t xml:space="preserve">IM1383</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product Name</t>
   </si>
   <si>
+    <t xml:space="preserve">RUTONZ ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACEBRIT P..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY GUT 10'S..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACEBRIT MR..</t>
+  </si>
+  <si>
     <t xml:space="preserve">VEINEX FORTE..</t>
   </si>
   <si>
-    <t xml:space="preserve">MY GUT 10'S..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUTONZ ..</t>
+    <t xml:space="preserve">FERTIBRIT M..</t>
   </si>
   <si>
     <t xml:space="preserve">MYGUT..</t>
@@ -281,10 +398,16 @@
     <t xml:space="preserve">MY 20 ..</t>
   </si>
   <si>
+    <t xml:space="preserve">AMOXIBRIT 625..</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARTITAB C2  ..</t>
   </si>
   <si>
     <t xml:space="preserve">CARTITAB-UC…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARTITAB UC CAPSULES..</t>
   </si>
   <si>
     <t xml:space="preserve">Product PTS</t>
@@ -481,7 +604,7 @@
 
 <file path=xl/worksheets/sheet0.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -492,7 +615,7 @@
     <col min="4" max="4" width="9.86" customWidth="1"/>
     <col min="5" max="5" width="9.43" customWidth="1"/>
     <col min="6" max="6" width="8.86" customWidth="1"/>
-    <col min="7" max="7" width="19.43" customWidth="1"/>
+    <col min="7" max="7" width="19.57" customWidth="1"/>
     <col min="8" max="8" width="5.29" customWidth="1"/>
     <col min="9" max="9" width="12.43" customWidth="1"/>
     <col min="10" max="10" width="8.29" customWidth="1"/>
@@ -500,15 +623,15 @@
     <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="7.71" customWidth="1"/>
     <col min="14" max="14" width="8.29" customWidth="1"/>
-    <col min="15" max="15" width="10.14" customWidth="1"/>
+    <col min="15" max="15" width="13.57" customWidth="1"/>
     <col min="16" max="16" width="11.14" customWidth="1"/>
-    <col min="17" max="17" width="15.29" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
     <col min="18" max="18" width="10.43" customWidth="1"/>
     <col min="19" max="19" width="7.86" customWidth="1"/>
     <col min="20" max="20" width="9.43" customWidth="1"/>
     <col min="21" max="21" width="11.29" customWidth="1"/>
     <col min="22" max="22" width="13.57" customWidth="1"/>
-    <col min="23" max="23" width="4.71" customWidth="1"/>
+    <col min="23" max="23" width="9.43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" customHeight="1">
@@ -525,61 +648,61 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
@@ -596,52 +719,52 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="R2" s="3">
-        <v>183.05</v>
+        <v>122.03</v>
       </c>
       <c r="S2" s="3">
-        <v>100.00</v>
+        <v>3.00</v>
       </c>
       <c r="T2" s="3">
-        <v>18305.00</v>
+        <v>366.09</v>
       </c>
       <c r="U2" s="4">
         <v/>
@@ -667,52 +790,52 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="R3" s="3">
-        <v>91.53</v>
+        <v>59.79</v>
       </c>
       <c r="S3" s="3">
-        <v>200.00</v>
+        <v>3.00</v>
       </c>
       <c r="T3" s="3">
-        <v>18306.00</v>
+        <v>179.37</v>
       </c>
       <c r="U3" s="4">
         <v/>
@@ -735,55 +858,55 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="R4" s="3">
-        <v>122.03</v>
+        <v>91.53</v>
       </c>
       <c r="S4" s="3">
-        <v>100.00</v>
+        <v>3.00</v>
       </c>
       <c r="T4" s="3">
-        <v>12203.00</v>
+        <v>274.59</v>
       </c>
       <c r="U4" s="4">
         <v/>
@@ -806,55 +929,55 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="R5" s="3">
-        <v>91.52</v>
+        <v>154.29</v>
       </c>
       <c r="S5" s="3">
-        <v>100.00</v>
+        <v>3.00</v>
       </c>
       <c r="T5" s="3">
-        <v>9152.00</v>
+        <v>462.87</v>
       </c>
       <c r="U5" s="4">
         <v/>
@@ -883,49 +1006,49 @@
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="R6" s="3">
-        <v>91.52</v>
+        <v>183.05</v>
       </c>
       <c r="S6" s="3">
-        <v>1000.00</v>
+        <v>100.00</v>
       </c>
       <c r="T6" s="3">
-        <v>91520.00</v>
+        <v>18305.00</v>
       </c>
       <c r="U6" s="4">
         <v/>
@@ -954,49 +1077,49 @@
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="R7" s="3">
-        <v>54.92</v>
+        <v>91.53</v>
       </c>
       <c r="S7" s="3">
-        <v>50.00</v>
+        <v>200.00</v>
       </c>
       <c r="T7" s="3">
-        <v>2746.00</v>
+        <v>18306.00</v>
       </c>
       <c r="U7" s="4">
         <v/>
@@ -1022,52 +1145,52 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="R8" s="3">
         <v>189.15</v>
       </c>
       <c r="S8" s="3">
-        <v>100.00</v>
+        <v>10.00</v>
       </c>
       <c r="T8" s="3">
-        <v>18915.00</v>
+        <v>1891.50</v>
       </c>
       <c r="U8" s="4">
         <v/>
@@ -1090,46 +1213,46 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="R9" s="3">
         <v>122.03</v>
@@ -1161,55 +1284,55 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="R10" s="3">
-        <v>54.92</v>
+        <v>91.52</v>
       </c>
       <c r="S10" s="3">
-        <v>4.00</v>
+        <v>100.00</v>
       </c>
       <c r="T10" s="3">
-        <v>219.68</v>
+        <v>9152.00</v>
       </c>
       <c r="U10" s="4">
         <v/>
@@ -1232,55 +1355,55 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="R11" s="3">
-        <v>91.53</v>
+        <v>91.52</v>
       </c>
       <c r="S11" s="3">
-        <v>20.00</v>
+        <v>1000.00</v>
       </c>
       <c r="T11" s="3">
-        <v>1830.60</v>
+        <v>91520.00</v>
       </c>
       <c r="U11" s="4">
         <v/>
@@ -1303,55 +1426,55 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="R12" s="3">
-        <v>189.15</v>
+        <v>54.92</v>
       </c>
       <c r="S12" s="3">
-        <v>2.00</v>
+        <v>50.00</v>
       </c>
       <c r="T12" s="3">
-        <v>378.30</v>
+        <v>2746.00</v>
       </c>
       <c r="U12" s="4">
         <v/>
@@ -1377,58 +1500,58 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="R13" s="3">
-        <v>122.03</v>
+        <v>189.15</v>
       </c>
       <c r="S13" s="3">
-        <v>20.00</v>
+        <v>100.00</v>
       </c>
       <c r="T13" s="3">
-        <v>2440.60</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>98</v>
+        <v>18915.00</v>
+      </c>
+      <c r="U13" s="4">
+        <v/>
+      </c>
+      <c r="V13" s="4">
+        <v/>
       </c>
       <c r="W13" s="4">
         <v/>
@@ -1445,55 +1568,55 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="R14" s="3">
-        <v>91.53</v>
+        <v>122.03</v>
       </c>
       <c r="S14" s="3">
-        <v>20.00</v>
+        <v>100.00</v>
       </c>
       <c r="T14" s="3">
-        <v>1830.60</v>
+        <v>12203.00</v>
       </c>
       <c r="U14" s="4">
         <v/>
@@ -1516,55 +1639,55 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="R15" s="3">
-        <v>189.15</v>
+        <v>54.92</v>
       </c>
       <c r="S15" s="3">
-        <v>20.00</v>
+        <v>4.00</v>
       </c>
       <c r="T15" s="3">
-        <v>3783.00</v>
+        <v>219.68</v>
       </c>
       <c r="U15" s="4">
         <v/>
@@ -1587,55 +1710,55 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="R16" s="3">
-        <v>122.03</v>
+        <v>91.53</v>
       </c>
       <c r="S16" s="3">
         <v>20.00</v>
       </c>
       <c r="T16" s="3">
-        <v>2440.60</v>
+        <v>1830.60</v>
       </c>
       <c r="U16" s="4">
         <v/>
@@ -1658,63 +1781,1057 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R17" s="3">
+        <v>189.15</v>
+      </c>
+      <c r="S17" s="3">
+        <v>2.00</v>
+      </c>
+      <c r="T17" s="3">
+        <v>378.30</v>
+      </c>
+      <c r="U17" s="4">
+        <v/>
+      </c>
+      <c r="V17" s="4">
+        <v/>
+      </c>
+      <c r="W17" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R18" s="3">
+        <v>183.05</v>
+      </c>
+      <c r="S18" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1830.50</v>
+      </c>
+      <c r="U18" s="4">
+        <v/>
+      </c>
+      <c r="V18" s="4">
+        <v/>
+      </c>
+      <c r="W18" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R19" s="3">
+        <v>122.03</v>
+      </c>
+      <c r="S19" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1220.30</v>
+      </c>
+      <c r="U19" s="4">
+        <v/>
+      </c>
+      <c r="V19" s="4">
+        <v/>
+      </c>
+      <c r="W19" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20" s="3">
+        <v>183.05</v>
+      </c>
+      <c r="S20" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1830.50</v>
+      </c>
+      <c r="U20" s="4">
+        <v/>
+      </c>
+      <c r="V20" s="4">
+        <v/>
+      </c>
+      <c r="W20" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="R21" s="3">
+        <v>91.52</v>
+      </c>
+      <c r="S21" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T21" s="3">
+        <v>915.20</v>
+      </c>
+      <c r="U21" s="4">
+        <v/>
+      </c>
+      <c r="V21" s="4">
+        <v/>
+      </c>
+      <c r="W21" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="G22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O17" s="2" t="s">
+      <c r="K22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R22" s="3">
+        <v>122.03</v>
+      </c>
+      <c r="S22" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T22" s="3">
+        <v>2440.60</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W22" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R23" s="3">
+        <v>91.53</v>
+      </c>
+      <c r="S23" s="3">
+        <v>30.00</v>
+      </c>
+      <c r="T23" s="3">
+        <v>2745.90</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R24" s="3">
+        <v>117.50</v>
+      </c>
+      <c r="S24" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T24" s="3">
+        <v>2350.00</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W24" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R25" s="3">
+        <v>91.53</v>
+      </c>
+      <c r="S25" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1830.60</v>
+      </c>
+      <c r="U25" s="4">
+        <v/>
+      </c>
+      <c r="V25" s="4">
+        <v/>
+      </c>
+      <c r="W25" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="L26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R26" s="3">
+        <v>189.15</v>
+      </c>
+      <c r="S26" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T26" s="3">
+        <v>3783.00</v>
+      </c>
+      <c r="U26" s="4">
+        <v/>
+      </c>
+      <c r="V26" s="4">
+        <v/>
+      </c>
+      <c r="W26" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R27" s="3">
+        <v>122.03</v>
+      </c>
+      <c r="S27" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T27" s="3">
+        <v>2440.60</v>
+      </c>
+      <c r="U27" s="4">
+        <v/>
+      </c>
+      <c r="V27" s="4">
+        <v/>
+      </c>
+      <c r="W27" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R28" s="3">
         <v>304.47</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S28" s="3">
         <v>20.00</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T28" s="3">
         <v>6089.40</v>
       </c>
-      <c r="U17" s="4">
-        <v/>
-      </c>
-      <c r="V17" s="4">
-        <v/>
-      </c>
-      <c r="W17" s="4">
+      <c r="U28" s="4">
+        <v/>
+      </c>
+      <c r="V28" s="4">
+        <v/>
+      </c>
+      <c r="W28" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R29" s="3">
+        <v>91.53</v>
+      </c>
+      <c r="S29" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1830.60</v>
+      </c>
+      <c r="U29" s="4">
+        <v/>
+      </c>
+      <c r="V29" s="4">
+        <v/>
+      </c>
+      <c r="W29" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R30" s="3">
+        <v>304.47</v>
+      </c>
+      <c r="S30" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T30" s="3">
+        <v>6089.40</v>
+      </c>
+      <c r="U30" s="4">
+        <v/>
+      </c>
+      <c r="V30" s="4">
+        <v/>
+      </c>
+      <c r="W30" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R31" s="3">
+        <v>122.03</v>
+      </c>
+      <c r="S31" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T31" s="3">
+        <v>2440.60</v>
+      </c>
+      <c r="U31" s="4">
+        <v/>
+      </c>
+      <c r="V31" s="4">
+        <v/>
+      </c>
+      <c r="W31" s="4">
         <v/>
       </c>
     </row>
